--- a/hqjpp.xlsx
+++ b/hqjpp.xlsx
@@ -86414,8 +86414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:F31"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -87939,11 +87939,11 @@
         <v>84800</v>
       </c>
       <c r="F31" s="65">
-        <f t="shared" ref="F31:F32" si="3">C31-E31</f>
+        <f t="shared" ref="F31:F33" si="3">C31-E31</f>
         <v>2100</v>
       </c>
       <c r="G31" s="109">
-        <f t="shared" ref="G31:G32" si="4">F31+300</f>
+        <f t="shared" ref="G31:G33" si="4">F31+300</f>
         <v>2400</v>
       </c>
       <c r="H31" s="110">
@@ -88028,18 +88028,34 @@
         <v>747</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="70"/>
+    <row r="33" spans="1:16" ht="14.25">
+      <c r="A33" s="70">
+        <v>201610</v>
+      </c>
       <c r="B33" s="70"/>
-      <c r="C33" s="114"/>
+      <c r="C33" s="114">
+        <v>88300</v>
+      </c>
       <c r="D33" s="70"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="115"/>
+      <c r="E33" s="64">
+        <v>86800</v>
+      </c>
+      <c r="F33" s="65">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="G33" s="115">
+        <f t="shared" si="4"/>
+        <v>1800</v>
+      </c>
       <c r="H33" s="116"/>
       <c r="I33" s="116"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="70"/>
+      <c r="J33" s="112">
+        <v>0.47902777777777777</v>
+      </c>
+      <c r="K33" s="140">
+        <v>0.47915509259259265</v>
+      </c>
       <c r="L33" s="70"/>
       <c r="M33" s="70"/>
       <c r="N33" s="70"/>
@@ -88169,8 +88185,8 @@
   <dimension ref="A1:AL54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -88304,7 +88320,7 @@
         <v>900</v>
       </c>
       <c r="E2" s="121">
-        <f>B2-F2</f>
+        <f t="shared" ref="E2:E31" si="0">B2-F2</f>
         <v>0</v>
       </c>
       <c r="F2">
@@ -88414,7 +88430,7 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="AL2">
-        <f t="shared" ref="AL2:AL30" si="0">6000/F2</f>
+        <f t="shared" ref="AL2:AL30" si="1">6000/F2</f>
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -88426,18 +88442,18 @@
         <v>600</v>
       </c>
       <c r="E3" s="121">
-        <f>B3-F3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F3">
         <v>600</v>
       </c>
       <c r="G3" s="121">
-        <f t="shared" ref="G3:G30" si="1">F3-I3</f>
+        <f t="shared" ref="G3:G30" si="2">F3-I3</f>
         <v>300</v>
       </c>
       <c r="H3" s="121">
-        <f t="shared" ref="H3:H30" si="2">E3+G3</f>
+        <f t="shared" ref="H3:H30" si="3">E3+G3</f>
         <v>300</v>
       </c>
       <c r="I3">
@@ -88471,11 +88487,11 @@
         <v>300</v>
       </c>
       <c r="S3" s="121">
-        <f t="shared" ref="S3:S30" si="3">I3-U3</f>
+        <f t="shared" ref="S3:S30" si="4">I3-U3</f>
         <v>0</v>
       </c>
       <c r="T3" s="121">
-        <f t="shared" ref="T3:T30" si="4">H3+S3</f>
+        <f t="shared" ref="T3:T30" si="5">H3+S3</f>
         <v>300</v>
       </c>
       <c r="U3">
@@ -88512,31 +88528,31 @@
         <v>600</v>
       </c>
       <c r="AF3" s="44">
-        <f t="shared" ref="AF3:AF30" si="5">AE3+300</f>
+        <f t="shared" ref="AF3:AF30" si="6">AE3+300</f>
         <v>900</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG30" si="6">U3/AE3</f>
+        <f t="shared" ref="AG3:AG30" si="7">U3/AE3</f>
         <v>0.5</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH30" si="7">I3/AE3</f>
+        <f t="shared" ref="AH3:AH30" si="8">I3/AE3</f>
         <v>0.5</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI30" si="8">F3/AE3</f>
+        <f t="shared" ref="AI3:AI30" si="9">F3/AE3</f>
         <v>1</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ30" si="9">1000/U3</f>
+        <f t="shared" ref="AJ3:AJ30" si="10">1000/U3</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK30" si="10">2000/I3</f>
+        <f t="shared" ref="AK3:AK30" si="11">2000/I3</f>
         <v>6.666666666666667</v>
       </c>
       <c r="AL3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -88548,18 +88564,18 @@
         <v>1200</v>
       </c>
       <c r="E4" s="121">
-        <f>B4-F4</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="F4">
         <v>900</v>
       </c>
       <c r="G4" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="H4" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
       <c r="I4">
@@ -88593,11 +88609,11 @@
         <v>200</v>
       </c>
       <c r="S4" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="T4" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1100</v>
       </c>
       <c r="U4">
@@ -88634,31 +88650,31 @@
         <v>1200</v>
       </c>
       <c r="AF4" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.666666666666667</v>
       </c>
       <c r="AL4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -88670,18 +88686,18 @@
         <v>1400</v>
       </c>
       <c r="E5" s="121">
-        <f>B5-F5</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="F5">
         <v>900</v>
       </c>
       <c r="G5" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="H5" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
       <c r="I5">
@@ -88715,11 +88731,11 @@
         <v>200</v>
       </c>
       <c r="S5" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="T5" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1200</v>
       </c>
       <c r="U5">
@@ -88756,31 +88772,31 @@
         <v>1400</v>
       </c>
       <c r="AF5" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1700</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -88792,18 +88808,18 @@
         <v>1800</v>
       </c>
       <c r="E6" s="121">
-        <f>B6-F6</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="F6">
         <v>1200</v>
       </c>
       <c r="G6" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="H6" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="I6">
@@ -88837,11 +88853,11 @@
         <v>200</v>
       </c>
       <c r="S6" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="T6" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1600</v>
       </c>
       <c r="U6">
@@ -88878,31 +88894,31 @@
         <v>1800</v>
       </c>
       <c r="AF6" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2100</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -88914,18 +88930,18 @@
         <v>1200</v>
       </c>
       <c r="E7" s="121">
-        <f>B7-F7</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="F7">
         <v>600</v>
       </c>
       <c r="G7" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="H7" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
       <c r="I7">
@@ -88959,11 +88975,11 @@
         <v>300</v>
       </c>
       <c r="S7" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="T7" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="U7">
@@ -89000,31 +89016,31 @@
         <v>1200</v>
       </c>
       <c r="AF7" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.666666666666667</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -89036,18 +89052,18 @@
         <v>2000</v>
       </c>
       <c r="E8" s="121">
-        <f>B8-F8</f>
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
       <c r="F8">
         <v>1300</v>
       </c>
       <c r="G8" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
       <c r="H8" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
       <c r="I8">
@@ -89081,11 +89097,11 @@
         <v>200</v>
       </c>
       <c r="S8" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="T8" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1800</v>
       </c>
       <c r="U8">
@@ -89122,31 +89138,31 @@
         <v>2000</v>
       </c>
       <c r="AF8" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2300</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.65</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="AK8">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
+      <c r="AK8">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
       <c r="AL8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.615384615384615</v>
       </c>
     </row>
@@ -89158,18 +89174,18 @@
         <v>1000</v>
       </c>
       <c r="E9" s="121">
-        <f>B9-F9</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="F9">
         <v>700</v>
       </c>
       <c r="G9" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="H9" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="I9">
@@ -89203,11 +89219,11 @@
         <v>100</v>
       </c>
       <c r="S9" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="T9" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>900</v>
       </c>
       <c r="U9">
@@ -89244,31 +89260,31 @@
         <v>1000</v>
       </c>
       <c r="AF9" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1300</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5714285714285712</v>
       </c>
     </row>
@@ -89280,18 +89296,18 @@
         <v>1200</v>
       </c>
       <c r="E10" s="121">
-        <f>B10-F10</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="F10">
         <v>900</v>
       </c>
       <c r="G10" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="H10" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>700</v>
       </c>
       <c r="I10">
@@ -89325,11 +89341,11 @@
         <v>300</v>
       </c>
       <c r="S10" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="T10" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>900</v>
       </c>
       <c r="U10">
@@ -89366,31 +89382,31 @@
         <v>1200</v>
       </c>
       <c r="AF10" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -89402,18 +89418,18 @@
         <v>1400</v>
       </c>
       <c r="E11" s="121">
-        <f>B11-F11</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="F11">
         <v>1100</v>
       </c>
       <c r="G11" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="H11" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
       <c r="I11">
@@ -89447,11 +89463,11 @@
         <v>200</v>
       </c>
       <c r="S11" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="T11" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1200</v>
       </c>
       <c r="U11">
@@ -89488,31 +89504,31 @@
         <v>1400</v>
       </c>
       <c r="AF11" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1700</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.7857142857142857</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4545454545454541</v>
       </c>
     </row>
@@ -89524,18 +89540,18 @@
         <v>900</v>
       </c>
       <c r="E12" s="121">
-        <f>B12-F12</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="F12">
         <v>600</v>
       </c>
       <c r="G12" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="I12">
@@ -89569,11 +89585,11 @@
         <v>300</v>
       </c>
       <c r="S12" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="T12" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>600</v>
       </c>
       <c r="U12">
@@ -89610,31 +89626,31 @@
         <v>900</v>
       </c>
       <c r="AF12" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1200</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AI12">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
+      <c r="AI12">
+        <f t="shared" si="9"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="AJ12">
-        <f t="shared" si="9"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AK12">
         <f t="shared" si="10"/>
         <v>3.3333333333333335</v>
       </c>
+      <c r="AK12">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="AL12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -89646,18 +89662,18 @@
         <v>1000</v>
       </c>
       <c r="E13" s="121">
-        <f>B13-F13</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="F13">
         <v>700</v>
       </c>
       <c r="G13" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="I13">
@@ -89691,11 +89707,11 @@
         <v>400</v>
       </c>
       <c r="S13" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="T13" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>600</v>
       </c>
       <c r="U13">
@@ -89732,31 +89748,31 @@
         <v>1000</v>
       </c>
       <c r="AF13" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1300</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="7"/>
-        <v>0.7</v>
-      </c>
-      <c r="AI13">
         <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
+      <c r="AI13">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
       <c r="AJ13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5714285714285712</v>
       </c>
     </row>
@@ -89768,18 +89784,18 @@
         <v>2800</v>
       </c>
       <c r="E14" s="121">
-        <f>B14-F14</f>
+        <f t="shared" si="0"/>
         <v>2300</v>
       </c>
       <c r="F14">
         <v>500</v>
       </c>
       <c r="G14" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="H14" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2500</v>
       </c>
       <c r="I14">
@@ -89813,11 +89829,11 @@
         <v>200</v>
       </c>
       <c r="S14" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="T14" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2600</v>
       </c>
       <c r="U14">
@@ -89854,31 +89870,31 @@
         <v>2800</v>
       </c>
       <c r="AF14" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3100</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10714285714285714</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.17857142857142858</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.666666666666667</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -89890,18 +89906,18 @@
         <v>5400</v>
       </c>
       <c r="E15" s="121">
-        <f>B15-F15</f>
+        <f t="shared" si="0"/>
         <v>4700</v>
       </c>
       <c r="F15">
         <v>700</v>
       </c>
       <c r="G15" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="H15" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5100</v>
       </c>
       <c r="I15">
@@ -89935,11 +89951,11 @@
         <v>200</v>
       </c>
       <c r="S15" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="T15" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5200</v>
       </c>
       <c r="U15">
@@ -89976,31 +89992,31 @@
         <v>5400</v>
       </c>
       <c r="AF15" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5700</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12962962962962962</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.666666666666667</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5714285714285712</v>
       </c>
     </row>
@@ -90012,18 +90028,18 @@
         <v>3800</v>
       </c>
       <c r="E16" s="121">
-        <f>B16-F16</f>
+        <f t="shared" si="0"/>
         <v>3100</v>
       </c>
       <c r="F16">
         <v>700</v>
       </c>
       <c r="G16" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="H16" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3500</v>
       </c>
       <c r="I16">
@@ -90057,11 +90073,11 @@
         <v>200</v>
       </c>
       <c r="S16" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="T16" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3600</v>
       </c>
       <c r="U16">
@@ -90098,31 +90114,31 @@
         <v>3800</v>
       </c>
       <c r="AF16" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4100</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.18421052631578946</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.666666666666667</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5714285714285712</v>
       </c>
     </row>
@@ -90134,18 +90150,18 @@
         <v>4800</v>
       </c>
       <c r="E17" s="121">
-        <f>B17-F17</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="F17" s="46">
         <v>2300</v>
       </c>
       <c r="G17" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1400</v>
       </c>
       <c r="H17" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3900</v>
       </c>
       <c r="I17" s="46">
@@ -90179,11 +90195,11 @@
         <v>500</v>
       </c>
       <c r="S17" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="T17" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4300</v>
       </c>
       <c r="U17" s="46">
@@ -90220,31 +90236,31 @@
         <v>4800</v>
       </c>
       <c r="AF17" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5100</v>
       </c>
       <c r="AG17" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10416666666666667</v>
       </c>
       <c r="AH17" s="46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1875</v>
       </c>
       <c r="AI17" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.47916666666666669</v>
       </c>
       <c r="AJ17" s="46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AK17" s="46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="AL17" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6086956521739131</v>
       </c>
     </row>
@@ -90256,18 +90272,18 @@
         <v>3200</v>
       </c>
       <c r="E18" s="121">
-        <f>B18-F18</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="F18">
         <v>1700</v>
       </c>
       <c r="G18" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
       <c r="H18" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2400</v>
       </c>
       <c r="I18">
@@ -90301,11 +90317,11 @@
         <v>500</v>
       </c>
       <c r="S18" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="T18" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2800</v>
       </c>
       <c r="U18">
@@ -90342,31 +90358,31 @@
         <v>3200</v>
       </c>
       <c r="AF18" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3500</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.53125</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="AK18">
         <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
+      <c r="AK18">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
       <c r="AL18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5294117647058822</v>
       </c>
     </row>
@@ -90378,18 +90394,18 @@
         <v>2700</v>
       </c>
       <c r="E19" s="121">
-        <f>B19-F19</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="F19">
         <v>1500</v>
       </c>
       <c r="G19" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700</v>
       </c>
       <c r="H19" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1900</v>
       </c>
       <c r="I19">
@@ -90423,11 +90439,11 @@
         <v>600</v>
       </c>
       <c r="S19" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="T19" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2200</v>
       </c>
       <c r="U19">
@@ -90464,31 +90480,31 @@
         <v>2700</v>
       </c>
       <c r="AF19" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.18518518518518517</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.29629629629629628</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="AJ19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AK19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -90500,18 +90516,18 @@
         <v>2200</v>
       </c>
       <c r="E20" s="121">
-        <f>B20-F20</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="F20">
         <v>1300</v>
       </c>
       <c r="G20" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="H20" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
       <c r="I20">
@@ -90545,11 +90561,11 @@
         <v>500</v>
       </c>
       <c r="S20" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="T20" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1800</v>
       </c>
       <c r="U20">
@@ -90586,31 +90602,31 @@
         <v>2200</v>
       </c>
       <c r="AF20" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2500</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.31818181818181818</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.59090909090909094</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.615384615384615</v>
       </c>
     </row>
@@ -90622,18 +90638,18 @@
         <v>2700</v>
       </c>
       <c r="E21" s="121">
-        <f>B21-F21</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="F21">
         <v>1500</v>
       </c>
       <c r="G21" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700</v>
       </c>
       <c r="H21" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1900</v>
       </c>
       <c r="I21">
@@ -90667,11 +90683,11 @@
         <v>500</v>
       </c>
       <c r="S21" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="T21" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2300</v>
       </c>
       <c r="U21">
@@ -90708,31 +90724,31 @@
         <v>2700</v>
       </c>
       <c r="AF21" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.14814814814814814</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.29629629629629628</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="AK21">
         <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
+      <c r="AK21">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
       <c r="AL21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -90744,18 +90760,18 @@
         <v>2000</v>
       </c>
       <c r="E22" s="121">
-        <f>B22-F22</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="F22" s="41">
         <v>1100</v>
       </c>
       <c r="G22" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="H22" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1400</v>
       </c>
       <c r="I22" s="41">
@@ -90789,11 +90805,11 @@
         <v>500</v>
       </c>
       <c r="S22" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="T22" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1500</v>
       </c>
       <c r="U22" s="41">
@@ -90830,31 +90846,31 @@
         <v>2000</v>
       </c>
       <c r="AF22" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2300</v>
       </c>
       <c r="AG22" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="AH22" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="AI22" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="AJ22" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AK22" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AL22" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4545454545454541</v>
       </c>
     </row>
@@ -90866,18 +90882,18 @@
         <v>1900</v>
       </c>
       <c r="E23" s="121">
-        <f>B23-F23</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="F23">
         <v>1000</v>
       </c>
       <c r="G23" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="H23" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="I23">
@@ -90911,11 +90927,11 @@
         <v>400</v>
       </c>
       <c r="S23" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="T23" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1500</v>
       </c>
       <c r="U23">
@@ -90952,31 +90968,31 @@
         <v>1900</v>
       </c>
       <c r="AF23" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2200</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.21052631578947367</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.36842105263157893</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.52631578947368418</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -90988,18 +91004,18 @@
         <v>1600</v>
       </c>
       <c r="E24" s="121">
-        <f>B24-F24</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="F24">
         <v>700</v>
       </c>
       <c r="G24" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="H24" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="I24">
@@ -91033,11 +91049,11 @@
         <v>200</v>
       </c>
       <c r="S24" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="T24" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1500</v>
       </c>
       <c r="U24">
@@ -91074,31 +91090,31 @@
         <v>1600</v>
       </c>
       <c r="AF24" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1900</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.25E-2</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.4375</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5714285714285712</v>
       </c>
     </row>
@@ -91110,18 +91126,18 @@
         <v>2600</v>
       </c>
       <c r="E25" s="121">
-        <f>B25-F25</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="F25">
         <v>1700</v>
       </c>
       <c r="G25" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700</v>
       </c>
       <c r="H25" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
       <c r="I25">
@@ -91155,11 +91171,11 @@
         <v>500</v>
       </c>
       <c r="S25" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="T25" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2100</v>
       </c>
       <c r="U25">
@@ -91196,31 +91212,31 @@
         <v>2600</v>
       </c>
       <c r="AF25" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2900</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19230769230769232</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.38461538461538464</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.65384615384615385</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AK25">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
+      <c r="AK25">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
       <c r="AL25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5294117647058822</v>
       </c>
     </row>
@@ -91232,18 +91248,18 @@
         <v>2500</v>
       </c>
       <c r="E26" s="121">
-        <f>B26-F26</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="F26" s="55">
         <v>1600</v>
       </c>
       <c r="G26" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="H26" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
       <c r="I26" s="55">
@@ -91277,11 +91293,11 @@
         <v>700</v>
       </c>
       <c r="S26" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="T26" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1800</v>
       </c>
       <c r="U26" s="55">
@@ -91318,31 +91334,31 @@
         <v>2500</v>
       </c>
       <c r="AF26" s="120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2800</v>
       </c>
       <c r="AG26" s="55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AH26" s="55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="AI26" s="55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.64</v>
       </c>
       <c r="AJ26" s="55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="AK26" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AL26" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
     </row>
@@ -91354,18 +91370,18 @@
         <v>2300</v>
       </c>
       <c r="E27" s="121">
-        <f>B27-F27</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="F27">
         <v>1400</v>
       </c>
       <c r="G27" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="H27" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="I27">
@@ -91399,11 +91415,11 @@
         <v>700</v>
       </c>
       <c r="S27" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="T27" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1600</v>
       </c>
       <c r="U27">
@@ -91437,35 +91453,35 @@
         <v>100</v>
       </c>
       <c r="AE27">
-        <f>B27</f>
+        <f t="shared" ref="AE27:AE32" si="12">B27</f>
         <v>2300</v>
       </c>
       <c r="AF27" s="120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2600</v>
       </c>
       <c r="AG27" s="55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="AH27" s="55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.47826086956521741</v>
       </c>
       <c r="AI27" s="55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.60869565217391308</v>
       </c>
       <c r="AJ27" s="55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="AK27" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8181818181818181</v>
       </c>
       <c r="AL27" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2857142857142856</v>
       </c>
     </row>
@@ -91477,18 +91493,18 @@
         <v>2200</v>
       </c>
       <c r="E28" s="121">
-        <f>B28-F28</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="F28">
         <v>1400</v>
       </c>
       <c r="G28" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="H28" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="I28">
@@ -91522,11 +91538,11 @@
         <v>700</v>
       </c>
       <c r="S28" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="T28" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1500</v>
       </c>
       <c r="U28">
@@ -91560,35 +91576,35 @@
         <v>0</v>
       </c>
       <c r="AE28">
-        <f>B28</f>
+        <f t="shared" si="12"/>
         <v>2200</v>
       </c>
       <c r="AF28" s="120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2500</v>
       </c>
       <c r="AG28" s="55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.31818181818181818</v>
       </c>
       <c r="AH28" s="55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="AI28" s="55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="AJ28" s="55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="AK28" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AL28" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2857142857142856</v>
       </c>
     </row>
@@ -91600,18 +91616,18 @@
         <v>1600</v>
       </c>
       <c r="E29" s="125">
-        <f>B29-F29</f>
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
       <c r="F29" s="124">
         <v>900</v>
       </c>
       <c r="G29" s="125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="H29" s="125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="I29" s="124">
@@ -91645,11 +91661,11 @@
         <v>300</v>
       </c>
       <c r="S29" s="125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="T29" s="125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1300</v>
       </c>
       <c r="U29" s="124">
@@ -91683,35 +91699,35 @@
         <v>0</v>
       </c>
       <c r="AE29" s="124">
-        <f>B29</f>
+        <f t="shared" si="12"/>
         <v>1600</v>
       </c>
       <c r="AF29" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1900</v>
       </c>
       <c r="AG29" s="124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1875</v>
       </c>
       <c r="AH29" s="124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="AI29" s="124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.5625</v>
       </c>
       <c r="AJ29" s="124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AK29" s="124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AL29" s="124">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -91723,18 +91739,18 @@
         <v>2400</v>
       </c>
       <c r="E30" s="121">
-        <f>B30-F30</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="F30">
         <v>1800</v>
       </c>
       <c r="G30" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700</v>
       </c>
       <c r="H30" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1300</v>
       </c>
       <c r="I30">
@@ -91768,11 +91784,11 @@
         <v>700</v>
       </c>
       <c r="S30" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="T30" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1800</v>
       </c>
       <c r="U30">
@@ -91806,35 +91822,35 @@
         <v>0</v>
       </c>
       <c r="AE30">
-        <f>B30</f>
+        <f t="shared" si="12"/>
         <v>2400</v>
       </c>
       <c r="AF30" s="120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2700</v>
       </c>
       <c r="AG30" s="55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="AH30" s="55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="AI30" s="55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
       <c r="AJ30" s="55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="AK30" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8181818181818181</v>
       </c>
       <c r="AL30" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
     </row>
@@ -91846,18 +91862,18 @@
         <v>2100</v>
       </c>
       <c r="E31" s="121">
-        <f>B31-F31</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="F31">
         <v>1800</v>
       </c>
       <c r="G31" s="121">
-        <f t="shared" ref="G31" si="11">F31-I31</f>
+        <f t="shared" ref="G31" si="13">F31-I31</f>
         <v>700</v>
       </c>
       <c r="H31" s="121">
-        <f t="shared" ref="H31" si="12">E31+G31</f>
+        <f t="shared" ref="H31" si="14">E31+G31</f>
         <v>1000</v>
       </c>
       <c r="I31">
@@ -91891,11 +91907,11 @@
         <v>700</v>
       </c>
       <c r="S31" s="121">
-        <f t="shared" ref="S31" si="13">I31-U31</f>
+        <f t="shared" ref="S31" si="15">I31-U31</f>
         <v>500</v>
       </c>
       <c r="T31" s="121">
-        <f t="shared" ref="T31" si="14">H31+S31</f>
+        <f t="shared" ref="T31" si="16">H31+S31</f>
         <v>1500</v>
       </c>
       <c r="U31">
@@ -91929,35 +91945,35 @@
         <v>0</v>
       </c>
       <c r="AE31">
-        <f>B31</f>
+        <f t="shared" si="12"/>
         <v>2100</v>
       </c>
       <c r="AF31" s="120">
-        <f t="shared" ref="AF31:AF32" si="15">AE31+300</f>
+        <f t="shared" ref="AF31:AF32" si="17">AE31+300</f>
         <v>2400</v>
       </c>
       <c r="AG31" s="55">
-        <f t="shared" ref="AG31" si="16">U31/AE31</f>
+        <f t="shared" ref="AG31" si="18">U31/AE31</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="AH31" s="55">
-        <f t="shared" ref="AH31" si="17">I31/AE31</f>
+        <f t="shared" ref="AH31" si="19">I31/AE31</f>
         <v>0.52380952380952384</v>
       </c>
       <c r="AI31" s="55">
-        <f t="shared" ref="AI31" si="18">F31/AE31</f>
+        <f t="shared" ref="AI31" si="20">F31/AE31</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="AJ31" s="55">
-        <f t="shared" ref="AJ31" si="19">1000/U31</f>
+        <f t="shared" ref="AJ31" si="21">1000/U31</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="AK31" s="55">
-        <f t="shared" ref="AK31" si="20">2000/I31</f>
+        <f t="shared" ref="AK31" si="22">2000/I31</f>
         <v>1.8181818181818181</v>
       </c>
       <c r="AL31" s="55">
-        <f t="shared" ref="AL31" si="21">6000/F31</f>
+        <f t="shared" ref="AL31" si="23">6000/F31</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
@@ -91969,18 +91985,24 @@
         <v>1700</v>
       </c>
       <c r="AE32">
-        <f>B32</f>
+        <f t="shared" si="12"/>
         <v>1700</v>
       </c>
       <c r="AF32" s="141">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2000</v>
       </c>
     </row>
     <row r="33" spans="1:38">
+      <c r="A33">
+        <v>201610</v>
+      </c>
       <c r="AF33" s="141"/>
     </row>
     <row r="34" spans="1:38">
+      <c r="A34">
+        <v>201611</v>
+      </c>
       <c r="AF34" s="141"/>
     </row>
     <row r="37" spans="1:38">
@@ -91992,139 +92014,139 @@
         <v>2200</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37:AL37" si="22">AVERAGE(E26:E30)</f>
+        <f t="shared" ref="E37:AL37" si="24">AVERAGE(E26:E30)</f>
         <v>780</v>
       </c>
       <c r="F37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1420</v>
       </c>
       <c r="G37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="H37" s="122">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1280</v>
       </c>
       <c r="I37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>920</v>
       </c>
       <c r="J37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>900</v>
       </c>
       <c r="K37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>900</v>
       </c>
       <c r="L37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>860</v>
       </c>
       <c r="M37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>820</v>
       </c>
       <c r="N37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>780</v>
       </c>
       <c r="O37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>760</v>
       </c>
       <c r="P37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>700</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>640</v>
       </c>
       <c r="R37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>620</v>
       </c>
       <c r="S37" s="122">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>320</v>
       </c>
       <c r="T37" s="122">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1600</v>
       </c>
       <c r="U37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>600</v>
       </c>
       <c r="V37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>560</v>
       </c>
       <c r="W37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>520</v>
       </c>
       <c r="X37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>480</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>380</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>340</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>300</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>240</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>160</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2200</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2500</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.26800592885375496</v>
       </c>
       <c r="AH37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.40822793148880104</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.63951185770750985</v>
       </c>
       <c r="AJ37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.857142857142857</v>
       </c>
       <c r="AK37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.5272727272727273</v>
       </c>
       <c r="AL37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.4642857142857135</v>
       </c>
     </row>
@@ -92137,139 +92159,139 @@
         <v>2350</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:AL39" si="23">AVERAGE(E26,E27,E28,E30)</f>
+        <f t="shared" ref="E39:AL39" si="25">AVERAGE(E26,E27,E28,E30)</f>
         <v>800</v>
       </c>
       <c r="F39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1550</v>
       </c>
       <c r="G39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>500</v>
       </c>
       <c r="H39" s="122">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1300</v>
       </c>
       <c r="I39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1050</v>
       </c>
       <c r="J39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1025</v>
       </c>
       <c r="K39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1025</v>
       </c>
       <c r="L39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>975</v>
       </c>
       <c r="M39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>925</v>
       </c>
       <c r="N39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>900</v>
       </c>
       <c r="O39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>875</v>
       </c>
       <c r="P39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>800</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>725</v>
       </c>
       <c r="R39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>700</v>
       </c>
       <c r="S39" s="122">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>375</v>
       </c>
       <c r="T39" s="122">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1675</v>
       </c>
       <c r="U39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>675</v>
       </c>
       <c r="V39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>625</v>
       </c>
       <c r="W39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>575</v>
       </c>
       <c r="X39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>525</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>425</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>375</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>325</v>
       </c>
       <c r="AB39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>275</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>175</v>
       </c>
       <c r="AD39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="AE39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2350</v>
       </c>
       <c r="AF39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2650</v>
       </c>
       <c r="AG39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.28813241106719367</v>
       </c>
       <c r="AH39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.44778491436100132</v>
       </c>
       <c r="AI39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.65876482213438736</v>
       </c>
       <c r="AJ39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.4880952380952381</v>
       </c>
       <c r="AK39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.9090909090909092</v>
       </c>
       <c r="AL39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.9136904761904758</v>
       </c>
     </row>
